--- a/joython/macros/APSAIA_VUV_2.xlsx
+++ b/joython/macros/APSAIA_VUV_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="21">
   <si>
     <t>Run</t>
   </si>
@@ -64,7 +64,19 @@
     <t>4 4 4 4 3</t>
   </si>
   <si>
+    <t>Calibration</t>
+  </si>
+  <si>
     <t>Muon</t>
+  </si>
+  <si>
+    <t>Noise</t>
+  </si>
+  <si>
+    <t>Visible</t>
+  </si>
+  <si>
+    <t>Autotrigger</t>
   </si>
 </sst>
 </file>
@@ -84,7 +96,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -116,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -147,9 +159,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -471,11 +480,11 @@
     <col min="4" max="4" style="10" width="11.862142857142858" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="10" width="42.29071428571429" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="10" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="10.862142857142858" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="13" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="11" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="12" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
@@ -543,7 +552,7 @@
         <v>30.0024512699321</v>
       </c>
       <c r="K2" s="7">
-        <v>25568.750521145834</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5">
@@ -576,7 +585,7 @@
         <v>36.2959758779142</v>
       </c>
       <c r="K3" s="7">
-        <v>25568.750521145834</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5">
@@ -609,7 +618,7 @@
         <v>49.8538205102497</v>
       </c>
       <c r="K4" s="7">
-        <v>25568.750521145834</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5">
@@ -642,7 +651,7 @@
         <v>30.3498983494858</v>
       </c>
       <c r="K5" s="7">
-        <v>25568.750521145834</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
@@ -675,7 +684,7 @@
         <v>35.5893816514318</v>
       </c>
       <c r="K6" s="7">
-        <v>25568.750521145834</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5">
@@ -708,7 +717,7 @@
         <v>30.3596777963727</v>
       </c>
       <c r="K7" s="7">
-        <v>25568.750521145834</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
@@ -721,7 +730,9 @@
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
@@ -739,7 +750,7 @@
         <v>463.151726407229</v>
       </c>
       <c r="K8" s="7">
-        <v>25568.750521145834</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
@@ -752,7 +763,9 @@
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
@@ -770,7 +783,7 @@
         <v>463.87171946372</v>
       </c>
       <c r="K9" s="7">
-        <v>25568.750521145834</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5">
@@ -783,7 +796,9 @@
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E10" s="2" t="s">
         <v>14</v>
       </c>
@@ -801,7 +816,7 @@
         <v>463.374311595382</v>
       </c>
       <c r="K10" s="7">
-        <v>25568.750521145834</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="16.5">
@@ -815,7 +830,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>14</v>
@@ -834,7 +849,7 @@
         <v>1.27938361575171</v>
       </c>
       <c r="K11" s="7">
-        <v>25568.750521145834</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="16.5">
@@ -867,7 +882,7 @@
         <v>40.5211770696081</v>
       </c>
       <c r="K12" s="7">
-        <v>25568.750521157406</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="16.5">
@@ -900,7 +915,7 @@
         <v>30.046236274956</v>
       </c>
       <c r="K13" s="7">
-        <v>25568.750521157406</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
@@ -933,7 +948,7 @@
         <v>38.5273165067196</v>
       </c>
       <c r="K14" s="7">
-        <v>25568.750521157406</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5">
@@ -966,7 +981,7 @@
         <v>30.6537224418759</v>
       </c>
       <c r="K15" s="7">
-        <v>25568.750521157406</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="16.5">
@@ -999,7 +1014,7 @@
         <v>58.1318679550782</v>
       </c>
       <c r="K16" s="7">
-        <v>25568.750521157406</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="16.5">
@@ -1032,7 +1047,7 @@
         <v>29.756140470768</v>
       </c>
       <c r="K17" s="7">
-        <v>25568.750521157406</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="16.5">
@@ -1045,7 +1060,9 @@
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
@@ -1063,7 +1080,7 @@
         <v>460.898931432498</v>
       </c>
       <c r="K18" s="7">
-        <v>25568.750521157406</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="16.5">
@@ -1076,7 +1093,9 @@
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E19" s="2" t="s">
         <v>14</v>
       </c>
@@ -1094,7 +1113,7 @@
         <v>462.531964449394</v>
       </c>
       <c r="K19" s="7">
-        <v>25568.750521157406</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="16.5">
@@ -1107,7 +1126,9 @@
       <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1125,7 +1146,7 @@
         <v>462.395410211446</v>
       </c>
       <c r="K20" s="7">
-        <v>25568.750521157406</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="16.5">
@@ -1138,7 +1159,9 @@
       <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
@@ -1156,7 +1179,7 @@
         <v>462.489273105342</v>
       </c>
       <c r="K21" s="7">
-        <v>25568.750521157406</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="16.5">
@@ -1169,7 +1192,9 @@
       <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
       </c>
@@ -1187,10 +1212,10 @@
         <v>461.229663585006</v>
       </c>
       <c r="K22" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -1200,7 +1225,9 @@
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1218,10 +1245,10 @@
         <v>460.898883765813</v>
       </c>
       <c r="K23" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -1231,7 +1258,9 @@
       <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
@@ -1249,10 +1278,10 @@
         <v>462.084258547571</v>
       </c>
       <c r="K24" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -1262,7 +1291,9 @@
       <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E25" s="2" t="s">
         <v>14</v>
       </c>
@@ -1280,10 +1311,10 @@
         <v>459.896720258735</v>
       </c>
       <c r="K25" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -1293,7 +1324,9 @@
       <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E26" s="2" t="s">
         <v>14</v>
       </c>
@@ -1311,10 +1344,10 @@
         <v>460.517777430629</v>
       </c>
       <c r="K26" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -1324,7 +1357,9 @@
       <c r="C27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
@@ -1342,10 +1377,10 @@
         <v>463.8029728864</v>
       </c>
       <c r="K27" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -1355,7 +1390,9 @@
       <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E28" s="2" t="s">
         <v>14</v>
       </c>
@@ -1373,10 +1410,10 @@
         <v>461.246641481813</v>
       </c>
       <c r="K28" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -1386,7 +1423,9 @@
       <c r="C29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E29" s="2" t="s">
         <v>14</v>
       </c>
@@ -1404,10 +1443,10 @@
         <v>461.982046108834</v>
       </c>
       <c r="K29" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -1417,7 +1456,9 @@
       <c r="C30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
@@ -1435,10 +1476,10 @@
         <v>457.737244362327</v>
       </c>
       <c r="K30" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -1448,7 +1489,9 @@
       <c r="C31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E31" s="2" t="s">
         <v>14</v>
       </c>
@@ -1466,10 +1509,10 @@
         <v>460.680834579323</v>
       </c>
       <c r="K31" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -1479,7 +1522,9 @@
       <c r="C32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
       </c>
@@ -1497,10 +1542,10 @@
         <v>459.456358335706</v>
       </c>
       <c r="K32" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="5">
         <v>31</v>
       </c>
@@ -1511,7 +1556,7 @@
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>14</v>
@@ -1530,10 +1575,10 @@
         <v>1.35031825718078</v>
       </c>
       <c r="K33" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -1563,10 +1608,10 @@
         <v>36.1933216563993</v>
       </c>
       <c r="K34" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="5">
         <v>33</v>
       </c>
@@ -1596,10 +1641,10 @@
         <v>31.7706174204955</v>
       </c>
       <c r="K35" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -1629,10 +1674,10 @@
         <v>37.1918943322695</v>
       </c>
       <c r="K36" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="5">
         <v>35</v>
       </c>
@@ -1662,10 +1707,10 @@
         <v>30.4618097312293</v>
       </c>
       <c r="K37" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -1695,10 +1740,10 @@
         <v>52.7853472671495</v>
       </c>
       <c r="K38" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="5">
         <v>37</v>
       </c>
@@ -1728,10 +1773,10 @@
         <v>29.8392202066231</v>
       </c>
       <c r="K39" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -1741,7 +1786,9 @@
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E40" s="2" t="s">
         <v>14</v>
       </c>
@@ -1759,10 +1806,10 @@
         <v>461.271357099204</v>
       </c>
       <c r="K40" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="5">
         <v>39</v>
       </c>
@@ -1772,7 +1819,9 @@
       <c r="C41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E41" s="2" t="s">
         <v>14</v>
       </c>
@@ -1790,10 +1839,10 @@
         <v>463.262661361365</v>
       </c>
       <c r="K41" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -1803,7 +1852,9 @@
       <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
@@ -1821,10 +1872,10 @@
         <v>457.605447629166</v>
       </c>
       <c r="K42" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="5">
         <v>41</v>
       </c>
@@ -1834,7 +1885,9 @@
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E43" s="2" t="s">
         <v>14</v>
       </c>
@@ -1852,10 +1905,10 @@
         <v>459.647768121285</v>
       </c>
       <c r="K43" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="5">
         <v>42</v>
       </c>
@@ -1865,7 +1918,9 @@
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E44" s="2" t="s">
         <v>14</v>
       </c>
@@ -1883,10 +1938,10 @@
         <v>460.703464413313</v>
       </c>
       <c r="K44" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="5">
         <v>43</v>
       </c>
@@ -1896,7 +1951,9 @@
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
@@ -1914,7 +1971,7 @@
         <v>460.275086657912</v>
       </c>
       <c r="K45" s="7">
-        <v>25568.750521157406</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
   </sheetData>
